--- a/data/trans_dic/P16B17-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B17-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B17-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B17-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -810,32 +810,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
     </row>
@@ -867,12 +867,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -992,12 +992,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1097,12 +1097,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1307,32 +1307,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1360,32 +1360,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
     </row>
@@ -1417,32 +1417,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1470,32 +1470,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
     </row>
@@ -1527,32 +1527,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1580,32 +1580,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
     </row>
